--- a/searchlinkedin/backup-0.xlsx
+++ b/searchlinkedin/backup-0.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,84 +440,168 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Profile</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>title+company</t>
-        </is>
-      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Person Linkedin Url</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Company On Badge</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Provstate</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Date Registered</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>linkedin_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>linkedin_title</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>linkedinProfile</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>match_linkedin_full</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>match_linkedin_name</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>rocket</t>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>match_linkedin_title</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>match_linkedin_company</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Gray Ainsworth</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/228183?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EVP, Technical Operations &amp; Delivery at Lionsgate Entertainment</t>
+          <t>Bill Patterson</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gray Ainsworth</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Gray Ainsworth - Santa Monica, California, United States</t>
-        </is>
-      </c>
+          <t>1billpatterson@gmail.com</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/gray-ainsworth-5b8731</t>
+          <t>Host / Executive Producer</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>Let's Go Flying LLC</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>OH</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>46033</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Bill Patterson</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Bill Patterson - Media Entrepreneur, Investor, Producer</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/wmpatterson</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>100.0%</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>https://rocketreach.co/gray-ainsworth-email_255453713</t>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0.0%</t>
         </is>
       </c>
     </row>
